--- a/data/rice/farmgate/rwfg.xlsx
+++ b/data/rice/farmgate/rwfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\price_transmission\data\rice\farmgate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natty\Documents\github\price_transmission\data\rice\farmgate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F84AF5-0DF8-4552-896D-DB529A3B49DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDD6E11-D63E-409D-B5C0-67F61C41D406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="20" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2532" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="2560" sheetId="29" r:id="rId29"/>
     <sheet name="2561" sheetId="30" r:id="rId30"/>
     <sheet name="2562" sheetId="31" r:id="rId31"/>
+    <sheet name="2563" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="112">
   <si>
     <t>ประเทศ/ภาค/จังหวัด</t>
   </si>
@@ -389,6 +390,9 @@
   <si>
     <t>ข้าวเปลือกเจ้าความชื้น 15%</t>
   </si>
+  <si>
+    <t>ราคาที่เกษตรกรขายได้ทีไร่นา เฉลี่ยรายเดือน ปี 2563</t>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +402,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -713,27 +717,27 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -786,7 +790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -853,24 +857,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -923,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -976,7 +980,7 @@
         <v>6213</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1042,24 +1046,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1231,24 +1235,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>4832</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1420,24 +1424,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1609,24 +1613,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>4958</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1798,24 +1802,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1987,24 +1991,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>5905</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2176,24 +2180,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>6702</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>6639</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2418,24 +2422,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>6439</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>6587</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>6479</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>6050</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -3124,7 +3128,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>6622</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>6637</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>6662</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>6637</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3442,7 +3446,7 @@
         <v>6650</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>6550</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -3548,7 +3552,7 @@
         <v>6575</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3601,7 +3605,7 @@
         <v>6550</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -3654,7 +3658,7 @@
         <v>6575</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>6625</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>6575</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>6675</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3866,7 +3870,7 @@
         <v>6650</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>6575</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -3972,7 +3976,7 @@
         <v>6175</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -4025,7 +4029,7 @@
         <v>6108</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -4078,7 +4082,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>6650</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>6175</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -4237,7 +4241,7 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -4356,24 +4360,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>6587</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>6366</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>6714</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>6194</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>6391</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -4850,7 +4854,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>5969</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>6144</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>6707</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -5327,7 +5331,7 @@
         <v>6695</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>6654</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -5486,7 +5490,7 @@
         <v>6672</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>6576</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -5592,7 +5596,7 @@
         <v>6550</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -5645,7 +5649,7 @@
         <v>6601</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -5751,7 +5755,7 @@
         <v>6648</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>6603</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -5857,7 +5861,7 @@
         <v>6646</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5910,7 +5914,7 @@
         <v>6634</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -5963,7 +5967,7 @@
         <v>6545</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>6515</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -6069,7 +6073,7 @@
         <v>6529</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -6122,7 +6126,7 @@
         <v>6384</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>6321</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>6580</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>6404</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -6334,7 +6338,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>6580</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>6191</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -6612,24 +6616,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -6749,24 +6753,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6819,7 +6823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -6872,7 +6876,7 @@
         <v>10524</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>10840</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>7055</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -7031,7 +7035,7 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -7084,7 +7088,7 @@
         <v>7225</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -7137,7 +7141,7 @@
         <v>10958</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>11138</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -7243,7 +7247,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -7296,7 +7300,7 @@
         <v>13649</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -7402,7 +7406,7 @@
         <v>10154</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>9685</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>9063</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>7757</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>7105</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -7667,7 +7671,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>7062</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>7115</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -7826,7 +7830,7 @@
         <v>7244</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>10477</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -7932,7 +7936,7 @@
         <v>10472</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -7985,7 +7989,7 @@
         <v>10514</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -8038,7 +8042,7 @@
         <v>10478</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -8091,7 +8095,7 @@
         <v>10544</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>10470</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8197,7 +8201,7 @@
         <v>10507</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>10530</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -8303,7 +8307,7 @@
         <v>10523</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -8356,7 +8360,7 @@
         <v>10287</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -8409,7 +8413,7 @@
         <v>10269</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -8462,7 +8466,7 @@
         <v>10426</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -8515,7 +8519,7 @@
         <v>10524</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -8621,7 +8625,7 @@
         <v>7906</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -8674,7 +8678,7 @@
         <v>9074</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -8780,7 +8784,7 @@
         <v>8378</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -8833,7 +8837,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -8899,24 +8903,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8969,7 +8973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9022,7 +9026,7 @@
         <v>9468</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>9272</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -9128,7 +9132,7 @@
         <v>9809</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>9849</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -9234,7 +9238,7 @@
         <v>9970</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -9287,7 +9291,7 @@
         <v>9662</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>9675</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -9393,7 +9397,7 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -9446,7 +9450,7 @@
         <v>10031</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -9499,7 +9503,7 @@
         <v>10293</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>10223</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -9605,7 +9609,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>9687</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -9711,7 +9715,7 @@
         <v>9690</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -9764,7 +9768,7 @@
         <v>9644</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -9817,7 +9821,7 @@
         <v>9683</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -9870,7 +9874,7 @@
         <v>9715</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -9923,7 +9927,7 @@
         <v>9687</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -9976,7 +9980,7 @@
         <v>9676</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -10029,7 +10033,7 @@
         <v>9681</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -10082,7 +10086,7 @@
         <v>9729</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -10135,7 +10139,7 @@
         <v>9874</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -10188,7 +10192,7 @@
         <v>10670</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -10241,7 +10245,7 @@
         <v>9933</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -10294,7 +10298,7 @@
         <v>9720</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -10347,7 +10351,7 @@
         <v>10373</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -10400,7 +10404,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -10453,7 +10457,7 @@
         <v>9972</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -10506,7 +10510,7 @@
         <v>10706</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -10572,24 +10576,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -10642,7 +10646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -10695,7 +10699,7 @@
         <v>8315</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -10748,7 +10752,7 @@
         <v>8011</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -10801,7 +10805,7 @@
         <v>8580</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -10854,7 +10858,7 @@
         <v>8983</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -10907,7 +10911,7 @@
         <v>8259</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -10960,7 +10964,7 @@
         <v>8440</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -11013,7 +11017,7 @@
         <v>8124</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -11066,7 +11070,7 @@
         <v>7980</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -11119,7 +11123,7 @@
         <v>7932</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -11172,7 +11176,7 @@
         <v>8237</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -11225,7 +11229,7 @@
         <v>8389</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -11278,7 +11282,7 @@
         <v>8387</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -11331,7 +11335,7 @@
         <v>8542</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -11384,7 +11388,7 @@
         <v>8613</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -11437,7 +11441,7 @@
         <v>8586</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -11490,7 +11494,7 @@
         <v>8595</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -11543,7 +11547,7 @@
         <v>8707</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -11596,7 +11600,7 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -11649,7 +11653,7 @@
         <v>8599</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -11702,7 +11706,7 @@
         <v>8650</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -11755,7 +11759,7 @@
         <v>8637</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -11808,7 +11812,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -11861,7 +11865,7 @@
         <v>8990</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -11914,7 +11918,7 @@
         <v>8678</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -11967,7 +11971,7 @@
         <v>8418</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>8679</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -12073,7 +12077,7 @@
         <v>8702</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -12126,7 +12130,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -12179,7 +12183,7 @@
         <v>8394</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -12232,7 +12236,7 @@
         <v>8139</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -12285,7 +12289,7 @@
         <v>8552</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>8724</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -12391,7 +12395,7 @@
         <v>8646</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -12444,7 +12448,7 @@
         <v>8758</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -12497,7 +12501,7 @@
         <v>8752</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -12563,24 +12567,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -12633,7 +12637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -12686,7 +12690,7 @@
         <v>9662</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12739,7 +12743,7 @@
         <v>9384</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -12792,7 +12796,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -12845,7 +12849,7 @@
         <v>9548</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -12898,7 +12902,7 @@
         <v>10703</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -12951,7 +12955,7 @@
         <v>8949</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -13004,7 +13008,7 @@
         <v>9114</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -13057,7 +13061,7 @@
         <v>8964</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -13110,7 +13114,7 @@
         <v>7610</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -13163,7 +13167,7 @@
         <v>7923</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -13216,7 +13220,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -13269,7 +13273,7 @@
         <v>8266</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -13322,7 +13326,7 @@
         <v>8328</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -13375,7 +13379,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -13428,7 +13432,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -13481,7 +13485,7 @@
         <v>9312</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -13534,7 +13538,7 @@
         <v>9354</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -13587,7 +13591,7 @@
         <v>9430</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -13640,7 +13644,7 @@
         <v>9505</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -13693,7 +13697,7 @@
         <v>9396</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -13746,7 +13750,7 @@
         <v>9449</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -13799,7 +13803,7 @@
         <v>9301</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -13852,7 +13856,7 @@
         <v>9355</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -13905,7 +13909,7 @@
         <v>9327</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -13958,7 +13962,7 @@
         <v>9676</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -14011,7 +14015,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -14064,7 +14068,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -14117,7 +14121,7 @@
         <v>9664</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>9082</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -14223,7 +14227,7 @@
         <v>9017</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -14276,7 +14280,7 @@
         <v>8883</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -14329,7 +14333,7 @@
         <v>9725</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -14382,7 +14386,7 @@
         <v>9618</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -14435,7 +14439,7 @@
         <v>9466</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -14488,7 +14492,7 @@
         <v>9580</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -14541,7 +14545,7 @@
         <v>8993</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -14594,7 +14598,7 @@
         <v>9681</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -14647,7 +14651,7 @@
         <v>8282</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -14700,7 +14704,7 @@
         <v>9375</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -14766,9 +14770,9 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -14789,7 +14793,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -14810,7 +14814,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -14831,7 +14835,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -14884,7 +14888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -14937,7 +14941,7 @@
         <v>10156</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -14990,7 +14994,7 @@
         <v>9974</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -15043,7 +15047,7 @@
         <v>9745</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -15096,7 +15100,7 @@
         <v>10345</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>10815</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -15202,7 +15206,7 @@
         <v>9852</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -15255,7 +15259,7 @@
         <v>10634</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -15308,7 +15312,7 @@
         <v>9914</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -15361,7 +15365,7 @@
         <v>10165</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -15414,7 +15418,7 @@
         <v>9403</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -15467,7 +15471,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -15520,7 +15524,7 @@
         <v>9537</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
@@ -15573,7 +15577,7 @@
         <v>10150</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -15626,7 +15630,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>95</v>
       </c>
@@ -15679,7 +15683,7 @@
         <v>10242</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>96</v>
       </c>
@@ -15732,7 +15736,7 @@
         <v>9389</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -15785,7 +15789,7 @@
         <v>9933</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
@@ -15838,7 +15842,7 @@
         <v>9039</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -15891,7 +15895,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
@@ -15944,7 +15948,7 @@
         <v>10215</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -15997,7 +16001,7 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -16050,7 +16054,7 @@
         <v>10265</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -16103,7 +16107,7 @@
         <v>10292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -16156,7 +16160,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -16209,7 +16213,7 @@
         <v>10252</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -16262,7 +16266,7 @@
         <v>10327</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -16315,7 +16319,7 @@
         <v>10327</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -16368,7 +16372,7 @@
         <v>10217</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
@@ -16421,7 +16425,7 @@
         <v>10483</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -16474,7 +16478,7 @@
         <v>10810</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -16527,7 +16531,7 @@
         <v>10824</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
@@ -16580,7 +16584,7 @@
         <v>10624</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -16633,7 +16637,7 @@
         <v>10037</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -16686,7 +16690,7 @@
         <v>10189</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>67</v>
       </c>
@@ -16739,7 +16743,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>68</v>
       </c>
@@ -16792,7 +16796,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -16845,7 +16849,7 @@
         <v>10634</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -16898,7 +16902,7 @@
         <v>10789</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -16951,7 +16955,7 @@
         <v>9918</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -17004,7 +17008,7 @@
         <v>10040</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -17057,7 +17061,7 @@
         <v>10427</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>72</v>
       </c>
@@ -17110,7 +17114,7 @@
         <v>9979</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -17163,7 +17167,7 @@
         <v>10281</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -17230,24 +17234,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -17300,7 +17304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -17353,7 +17357,7 @@
         <v>8763</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -17406,7 +17410,7 @@
         <v>9462</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -17459,7 +17463,7 @@
         <v>10560</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -17512,7 +17516,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -17565,7 +17569,7 @@
         <v>13213</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -17618,7 +17622,7 @@
         <v>8992</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -17671,7 +17675,7 @@
         <v>9598</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -17724,7 +17728,7 @@
         <v>9221</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -17777,7 +17781,7 @@
         <v>9340</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -17830,7 +17834,7 @@
         <v>8490</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -17883,7 +17887,7 @@
         <v>9753</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -17936,7 +17940,7 @@
         <v>9565</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -17989,7 +17993,7 @@
         <v>10152</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -18042,7 +18046,7 @@
         <v>9902</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -18095,7 +18099,7 @@
         <v>10440</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -18148,7 +18152,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -18201,7 +18205,7 @@
         <v>10836</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -18254,7 +18258,7 @@
         <v>9289</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -18307,7 +18311,7 @@
         <v>9289</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -18360,7 +18364,7 @@
         <v>9310</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -18413,7 +18417,7 @@
         <v>9307</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -18466,7 +18470,7 @@
         <v>9443</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -18519,7 +18523,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -18572,7 +18576,7 @@
         <v>9143</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -18625,7 +18629,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -18678,7 +18682,7 @@
         <v>9143</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -18731,7 +18735,7 @@
         <v>9643</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -18784,7 +18788,7 @@
         <v>9088</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -18837,7 +18841,7 @@
         <v>9019</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -18890,7 +18894,7 @@
         <v>8887</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -18943,7 +18947,7 @@
         <v>9571</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -18996,7 +19000,7 @@
         <v>9004</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -19049,7 +19053,7 @@
         <v>9029</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -19102,7 +19106,7 @@
         <v>9544</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -19155,7 +19159,7 @@
         <v>9446</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -19208,7 +19212,7 @@
         <v>9257</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -19261,7 +19265,7 @@
         <v>10129</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -19314,7 +19318,7 @@
         <v>8743</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -19367,7 +19371,7 @@
         <v>9434</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -19420,7 +19424,7 @@
         <v>9615</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -19473,7 +19477,7 @@
         <v>9143</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -19539,24 +19543,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -19609,7 +19613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -19662,7 +19666,7 @@
         <v>7753</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -19715,7 +19719,7 @@
         <v>7486</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -19768,7 +19772,7 @@
         <v>7755</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -19821,7 +19825,7 @@
         <v>7729</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -19874,7 +19878,7 @@
         <v>7824</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -19927,7 +19931,7 @@
         <v>7662</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -19980,7 +19984,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -20033,7 +20037,7 @@
         <v>7626</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -20086,7 +20090,7 @@
         <v>7784</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -20139,7 +20143,7 @@
         <v>7162</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -20192,7 +20196,7 @@
         <v>7881</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -20245,7 +20249,7 @@
         <v>8118</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -20298,7 +20302,7 @@
         <v>7757</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -20351,7 +20355,7 @@
         <v>7767</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -20404,7 +20408,7 @@
         <v>7784</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -20457,7 +20461,7 @@
         <v>7728</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -20510,7 +20514,7 @@
         <v>7828</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -20563,7 +20567,7 @@
         <v>7730</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -20616,7 +20620,7 @@
         <v>7674</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -20669,7 +20673,7 @@
         <v>7728</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -20722,7 +20726,7 @@
         <v>7710</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -20775,7 +20779,7 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -20828,7 +20832,7 @@
         <v>7778</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -20881,7 +20885,7 @@
         <v>7745</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -20934,7 +20938,7 @@
         <v>7793</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -20987,7 +20991,7 @@
         <v>7598</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -21040,7 +21044,7 @@
         <v>7627</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -21093,7 +21097,7 @@
         <v>7748</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -21146,7 +21150,7 @@
         <v>7746</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -21199,7 +21203,7 @@
         <v>7696</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -21252,7 +21256,7 @@
         <v>8048</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -21305,7 +21309,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -21358,7 +21362,7 @@
         <v>7462</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -21411,7 +21415,7 @@
         <v>7574</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -21464,7 +21468,7 @@
         <v>7762</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -21530,24 +21534,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -21600,7 +21604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -21653,7 +21657,7 @@
         <v>7696</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -21706,7 +21710,7 @@
         <v>7556</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -21759,7 +21763,7 @@
         <v>7876</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -21812,7 +21816,7 @@
         <v>7561</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -21865,7 +21869,7 @@
         <v>7636</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -21918,7 +21922,7 @@
         <v>7618</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -21971,7 +21975,7 @@
         <v>7390</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -22024,7 +22028,7 @@
         <v>7263</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -22077,7 +22081,7 @@
         <v>7617</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -22130,7 +22134,7 @@
         <v>7442</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -22183,7 +22187,7 @@
         <v>7705</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -22236,7 +22240,7 @@
         <v>7692</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -22289,7 +22293,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -22342,7 +22346,7 @@
         <v>7756</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -22395,7 +22399,7 @@
         <v>8033</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -22448,7 +22452,7 @@
         <v>7967</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -22501,7 +22505,7 @@
         <v>7829</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -22554,7 +22558,7 @@
         <v>7971</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -22607,7 +22611,7 @@
         <v>7796</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -22660,7 +22664,7 @@
         <v>7855</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -22713,7 +22717,7 @@
         <v>7864</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -22766,7 +22770,7 @@
         <v>7866</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -22819,7 +22823,7 @@
         <v>7434</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -22872,7 +22876,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -22925,7 +22929,7 @@
         <v>7824</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -22978,7 +22982,7 @@
         <v>7744</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -23031,7 +23035,7 @@
         <v>7622</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -23084,7 +23088,7 @@
         <v>7712</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -23137,7 +23141,7 @@
         <v>7851</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -23190,7 +23194,7 @@
         <v>7652</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -23243,7 +23247,7 @@
         <v>7741</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -23296,7 +23300,7 @@
         <v>7566</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -23349,7 +23353,7 @@
         <v>7718</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -23402,7 +23406,7 @@
         <v>7705</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -23468,24 +23472,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -23538,7 +23542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -23591,7 +23595,7 @@
         <v>7545</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -23644,7 +23648,7 @@
         <v>7543</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -23697,7 +23701,7 @@
         <v>7588</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -23750,7 +23754,7 @@
         <v>8151</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -23803,7 +23807,7 @@
         <v>7937</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -23856,7 +23860,7 @@
         <v>7607</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -23909,7 +23913,7 @@
         <v>7636</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -23962,7 +23966,7 @@
         <v>7415</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -24015,7 +24019,7 @@
         <v>7702</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -24068,7 +24072,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -24121,7 +24125,7 @@
         <v>7816</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -24174,7 +24178,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -24227,7 +24231,7 @@
         <v>6984</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -24280,7 +24284,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -24333,7 +24337,7 @@
         <v>7737</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -24386,7 +24390,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -24439,7 +24443,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -24492,7 +24496,7 @@
         <v>7511</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -24545,7 +24549,7 @@
         <v>8087</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -24598,7 +24602,7 @@
         <v>7771</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -24651,7 +24655,7 @@
         <v>7690</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -24704,7 +24708,7 @@
         <v>8294</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -24757,7 +24761,7 @@
         <v>8041</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -24810,7 +24814,7 @@
         <v>7915</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -24863,7 +24867,7 @@
         <v>8222</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -24916,7 +24920,7 @@
         <v>7691</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -24969,7 +24973,7 @@
         <v>8455</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -25022,7 +25026,7 @@
         <v>8236</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -25075,7 +25079,7 @@
         <v>8220</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -25128,7 +25132,7 @@
         <v>8084</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -25181,7 +25185,7 @@
         <v>7633</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -25234,7 +25238,7 @@
         <v>7599</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -25287,7 +25291,7 @@
         <v>8034</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -25340,7 +25344,7 @@
         <v>7939</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -25393,7 +25397,7 @@
         <v>7902</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -25446,7 +25450,7 @@
         <v>8026</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -25499,7 +25503,7 @@
         <v>8139</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -25552,7 +25556,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -25605,7 +25609,7 @@
         <v>7714</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -25658,7 +25662,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -25711,7 +25715,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -25764,7 +25768,7 @@
         <v>7482</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -25817,7 +25821,7 @@
         <v>7412</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -25870,7 +25874,7 @@
         <v>8362</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -25923,7 +25927,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -25976,7 +25980,7 @@
         <v>7901</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -26042,24 +26046,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -26112,7 +26116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -26165,7 +26169,7 @@
         <v>7905</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -26218,7 +26222,7 @@
         <v>7348</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -26271,7 +26275,7 @@
         <v>7787</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -26324,7 +26328,7 @@
         <v>7752</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -26377,7 +26381,7 @@
         <v>7472</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -26430,7 +26434,7 @@
         <v>7384</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -26483,7 +26487,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -26536,7 +26540,7 @@
         <v>7336</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -26589,7 +26593,7 @@
         <v>7087</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -26642,7 +26646,7 @@
         <v>7434</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -26695,7 +26699,7 @@
         <v>7420</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -26748,7 +26752,7 @@
         <v>7191</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -26801,7 +26805,7 @@
         <v>7688</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -26854,7 +26858,7 @@
         <v>7730</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -26907,7 +26911,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -26960,7 +26964,7 @@
         <v>7476</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -27013,7 +27017,7 @@
         <v>7578</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -27066,7 +27070,7 @@
         <v>7460</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -27119,7 +27123,7 @@
         <v>7585</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -27172,7 +27176,7 @@
         <v>7591</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -27225,7 +27229,7 @@
         <v>7733</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -27278,7 +27282,7 @@
         <v>8123</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -27331,7 +27335,7 @@
         <v>7140</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -27384,7 +27388,7 @@
         <v>7804</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -27437,7 +27441,7 @@
         <v>7803</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -27490,7 +27494,7 @@
         <v>7628</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -27543,7 +27547,7 @@
         <v>7802</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -27596,7 +27600,7 @@
         <v>7782</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -27649,7 +27653,7 @@
         <v>7506</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -27702,7 +27706,7 @@
         <v>7927</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -27755,7 +27759,7 @@
         <v>7802</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -27808,7 +27812,7 @@
         <v>7655</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -27861,7 +27865,7 @@
         <v>7624</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -27914,7 +27918,7 @@
         <v>7624</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -27967,7 +27971,7 @@
         <v>7690</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -28020,7 +28024,7 @@
         <v>7450</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -28073,7 +28077,7 @@
         <v>7549</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -28126,7 +28130,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -28179,7 +28183,7 @@
         <v>7763</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -28232,7 +28236,7 @@
         <v>7583</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -28285,7 +28289,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -28338,7 +28342,7 @@
         <v>7528</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -28391,7 +28395,7 @@
         <v>7771</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -28444,7 +28448,7 @@
         <v>7564</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -28497,7 +28501,7 @@
         <v>7368</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -28563,24 +28567,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -28633,7 +28637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -28699,24 +28703,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -28769,7 +28773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -28822,7 +28826,7 @@
         <v>7892</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -28875,7 +28879,7 @@
         <v>7508</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -28928,7 +28932,7 @@
         <v>8666</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -28981,7 +28985,7 @@
         <v>7735</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -29034,7 +29038,7 @@
         <v>8171</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -29087,7 +29091,7 @@
         <v>7476</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -29140,7 +29144,7 @@
         <v>7501</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -29193,7 +29197,7 @@
         <v>7429</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -29246,7 +29250,7 @@
         <v>7616</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -29299,7 +29303,7 @@
         <v>7160</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -29352,7 +29356,7 @@
         <v>7205</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -29405,7 +29409,7 @@
         <v>7497</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -29458,7 +29462,7 @@
         <v>7772</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -29511,7 +29515,7 @@
         <v>7823</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -29564,7 +29568,7 @@
         <v>8616</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -29617,7 +29621,7 @@
         <v>8673</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -29670,7 +29674,7 @@
         <v>8659</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -29723,7 +29727,7 @@
         <v>8692</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -29776,7 +29780,7 @@
         <v>7697</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -29829,7 +29833,7 @@
         <v>7993</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -29882,7 +29886,7 @@
         <v>7628</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -29935,7 +29939,7 @@
         <v>7623</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -29988,7 +29992,7 @@
         <v>7747</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -30041,7 +30045,7 @@
         <v>7613</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -30094,7 +30098,7 @@
         <v>7522</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -30147,7 +30151,7 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -30200,7 +30204,7 @@
         <v>7962</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -30253,7 +30257,7 @@
         <v>7715</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -30306,7 +30310,7 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -30359,7 +30363,7 @@
         <v>7660</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -30412,7 +30416,7 @@
         <v>7722</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -30465,7 +30469,7 @@
         <v>7734</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -30518,7 +30522,7 @@
         <v>7730</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -30571,7 +30575,7 @@
         <v>7646</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -30624,7 +30628,7 @@
         <v>7788</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -30677,7 +30681,7 @@
         <v>7597</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -30730,7 +30734,7 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -30783,7 +30787,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -30836,7 +30840,7 @@
         <v>9792</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -30889,7 +30893,7 @@
         <v>7865</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -30942,7 +30946,7 @@
         <v>7377</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -31004,28 +31008,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -31078,7 +31082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -31124,14 +31128,14 @@
       <c r="O5" s="1">
         <v>7881</v>
       </c>
-      <c r="P5" t="s">
-        <v>30</v>
+      <c r="P5" s="1">
+        <v>7705</v>
       </c>
       <c r="Q5" s="1">
-        <v>7838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -31177,14 +31181,14 @@
       <c r="O6" s="1">
         <v>7483</v>
       </c>
-      <c r="P6" t="s">
-        <v>30</v>
+      <c r="P6" s="1">
+        <v>7384</v>
       </c>
       <c r="Q6" s="1">
-        <v>7445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -31230,14 +31234,14 @@
       <c r="O7" s="1">
         <v>8225</v>
       </c>
-      <c r="P7" t="s">
-        <v>30</v>
+      <c r="P7" s="1">
+        <v>7897</v>
       </c>
       <c r="Q7" s="1">
-        <v>8378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -31283,14 +31287,14 @@
       <c r="O8" s="1">
         <v>7721</v>
       </c>
-      <c r="P8" t="s">
-        <v>30</v>
+      <c r="P8" s="1">
+        <v>7577</v>
       </c>
       <c r="Q8" s="1">
-        <v>7838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -31336,14 +31340,14 @@
       <c r="O9" s="1">
         <v>7253</v>
       </c>
-      <c r="P9" t="s">
-        <v>30</v>
+      <c r="P9" s="1">
+        <v>7480</v>
       </c>
       <c r="Q9" s="1">
-        <v>7423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -31389,14 +31393,14 @@
       <c r="O10" s="1">
         <v>7586</v>
       </c>
-      <c r="P10" t="s">
-        <v>30</v>
+      <c r="P10" s="1">
+        <v>7480</v>
       </c>
       <c r="Q10" s="1">
-        <v>7549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -31442,14 +31446,14 @@
       <c r="O11" s="1">
         <v>7550</v>
       </c>
-      <c r="P11" t="s">
-        <v>30</v>
+      <c r="P11" s="1">
+        <v>7430</v>
       </c>
       <c r="Q11" s="1">
-        <v>7556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -31495,14 +31499,14 @@
       <c r="O12" s="1">
         <v>7552</v>
       </c>
-      <c r="P12" t="s">
-        <v>30</v>
+      <c r="P12" s="1">
+        <v>7450</v>
       </c>
       <c r="Q12" s="1">
-        <v>7481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -31548,14 +31552,14 @@
       <c r="O13" s="1">
         <v>7584</v>
       </c>
-      <c r="P13" t="s">
-        <v>30</v>
+      <c r="P13" s="1">
+        <v>7317</v>
       </c>
       <c r="Q13" s="1">
         <v>7606</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -31601,14 +31605,14 @@
       <c r="O14" s="1">
         <v>7150</v>
       </c>
-      <c r="P14" t="s">
-        <v>30</v>
+      <c r="P14" s="1">
+        <v>7108</v>
       </c>
       <c r="Q14" s="1">
         <v>7150</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -31654,14 +31658,14 @@
       <c r="O15" s="1">
         <v>7260</v>
       </c>
-      <c r="P15" t="s">
-        <v>30</v>
+      <c r="P15" s="1">
+        <v>7214</v>
       </c>
       <c r="Q15" s="1">
-        <v>7116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -31707,14 +31711,14 @@
       <c r="O16" s="1">
         <v>7558</v>
       </c>
-      <c r="P16" t="s">
-        <v>30</v>
+      <c r="P16" s="1">
+        <v>7397</v>
       </c>
       <c r="Q16" s="1">
         <v>7477</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -31760,14 +31764,14 @@
       <c r="O17" s="1">
         <v>7395</v>
       </c>
-      <c r="P17" t="s">
-        <v>30</v>
+      <c r="P17" s="1">
+        <v>7417</v>
       </c>
       <c r="Q17" s="1">
         <v>7318</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -31813,14 +31817,14 @@
       <c r="O18" s="1">
         <v>7240</v>
       </c>
-      <c r="P18" t="s">
-        <v>30</v>
+      <c r="P18" s="1">
+        <v>7033</v>
       </c>
       <c r="Q18" s="1">
         <v>7855</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -31866,14 +31870,14 @@
       <c r="O19" s="1">
         <v>8279</v>
       </c>
-      <c r="P19" t="s">
-        <v>30</v>
+      <c r="P19" s="1">
+        <v>7789</v>
       </c>
       <c r="Q19" s="1">
-        <v>8319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -31907,16 +31911,16 @@
       <c r="K20" s="1">
         <v>8300</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="1">
         <v>8300</v>
       </c>
-      <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P20" t="s">
@@ -31926,7 +31930,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -31972,14 +31976,14 @@
       <c r="O21" s="1">
         <v>8100</v>
       </c>
-      <c r="P21" t="s">
-        <v>30</v>
+      <c r="P21" s="1">
+        <v>8067</v>
       </c>
       <c r="Q21" s="1">
         <v>8345</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -32025,14 +32029,14 @@
       <c r="O22" s="1">
         <v>8176</v>
       </c>
-      <c r="P22" t="s">
-        <v>30</v>
+      <c r="P22" s="1">
+        <v>7898</v>
       </c>
       <c r="Q22" s="1">
-        <v>8394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -32063,10 +32067,10 @@
       <c r="J23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="1">
@@ -32085,7 +32089,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -32131,14 +32135,14 @@
       <c r="O24" s="1">
         <v>8050</v>
       </c>
-      <c r="P24" t="s">
-        <v>30</v>
+      <c r="P24" s="1">
+        <v>7593</v>
       </c>
       <c r="Q24" s="1">
-        <v>8057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -32184,14 +32188,14 @@
       <c r="O25" s="1">
         <v>7972</v>
       </c>
-      <c r="P25" t="s">
-        <v>30</v>
+      <c r="P25" s="1">
+        <v>7707</v>
       </c>
       <c r="Q25" s="1">
-        <v>7854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -32244,7 +32248,7 @@
         <v>7967</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -32290,14 +32294,14 @@
       <c r="O27" s="1">
         <v>7636</v>
       </c>
-      <c r="P27" t="s">
-        <v>30</v>
+      <c r="P27" s="1">
+        <v>7688</v>
       </c>
       <c r="Q27" s="1">
-        <v>7908</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -32343,14 +32347,14 @@
       <c r="O28" s="1">
         <v>7831</v>
       </c>
-      <c r="P28" t="s">
-        <v>30</v>
+      <c r="P28" s="1">
+        <v>7569</v>
       </c>
       <c r="Q28" s="1">
-        <v>7659</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -32393,17 +32397,17 @@
       <c r="N29" s="1">
         <v>7901</v>
       </c>
-      <c r="O29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P29" t="s">
-        <v>30</v>
+      <c r="O29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="1">
+        <v>8261</v>
       </c>
       <c r="Q29" s="1">
-        <v>7862</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -32449,14 +32453,14 @@
       <c r="O30" s="1">
         <v>8021</v>
       </c>
-      <c r="P30" t="s">
-        <v>30</v>
+      <c r="P30" s="1">
+        <v>8040</v>
       </c>
       <c r="Q30" s="1">
-        <v>8112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -32502,14 +32506,14 @@
       <c r="O31" s="1">
         <v>7994</v>
       </c>
-      <c r="P31" t="s">
-        <v>30</v>
+      <c r="P31" s="1">
+        <v>7931</v>
       </c>
       <c r="Q31" s="1">
-        <v>8094</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -32555,14 +32559,14 @@
       <c r="O32" s="1">
         <v>7400</v>
       </c>
-      <c r="P32" t="s">
-        <v>30</v>
+      <c r="P32" s="1">
+        <v>7467</v>
       </c>
       <c r="Q32" s="1">
-        <v>7561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -32608,14 +32612,14 @@
       <c r="O33" s="1">
         <v>7400</v>
       </c>
-      <c r="P33" t="s">
-        <v>30</v>
+      <c r="P33" s="1">
+        <v>7433</v>
       </c>
       <c r="Q33" s="1">
-        <v>7543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -32661,14 +32665,14 @@
       <c r="O34" s="1">
         <v>7400</v>
       </c>
-      <c r="P34" t="s">
-        <v>30</v>
+      <c r="P34" s="1">
+        <v>7433</v>
       </c>
       <c r="Q34" s="1">
-        <v>7543</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -32714,14 +32718,14 @@
       <c r="O35" s="1">
         <v>7500</v>
       </c>
-      <c r="P35" t="s">
-        <v>30</v>
+      <c r="P35" s="1">
+        <v>7567</v>
       </c>
       <c r="Q35" s="1">
-        <v>7648</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -32767,14 +32771,14 @@
       <c r="O36" s="1">
         <v>7520</v>
       </c>
-      <c r="P36" t="s">
-        <v>30</v>
+      <c r="P36" s="1">
+        <v>7367</v>
       </c>
       <c r="Q36" s="1">
-        <v>7632</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -32820,14 +32824,14 @@
       <c r="O37" s="1">
         <v>7440</v>
       </c>
-      <c r="P37" t="s">
-        <v>30</v>
+      <c r="P37" s="1">
+        <v>7400</v>
       </c>
       <c r="Q37" s="1">
-        <v>7687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -32873,14 +32877,14 @@
       <c r="O38" s="1">
         <v>7520</v>
       </c>
-      <c r="P38" t="s">
-        <v>30</v>
+      <c r="P38" s="1">
+        <v>7467</v>
       </c>
       <c r="Q38" s="1">
-        <v>7676</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -32926,14 +32930,14 @@
       <c r="O39" s="1">
         <v>7600</v>
       </c>
-      <c r="P39" t="s">
-        <v>30</v>
+      <c r="P39" s="1">
+        <v>7667</v>
       </c>
       <c r="Q39" s="1">
-        <v>7690</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -32979,14 +32983,14 @@
       <c r="O40" s="1">
         <v>7400</v>
       </c>
-      <c r="P40" t="s">
-        <v>30</v>
+      <c r="P40" s="1">
+        <v>7467</v>
       </c>
       <c r="Q40" s="1">
-        <v>7492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -33032,18 +33036,18 @@
       <c r="O41" s="1">
         <v>7300</v>
       </c>
-      <c r="P41" t="s">
-        <v>30</v>
+      <c r="P41" s="1">
+        <v>7367</v>
       </c>
       <c r="Q41" s="1">
-        <v>7459</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -33085,14 +33089,14 @@
       <c r="O42" s="1">
         <v>7620</v>
       </c>
-      <c r="P42" t="s">
-        <v>30</v>
+      <c r="P42" s="1">
+        <v>7500</v>
       </c>
       <c r="Q42" s="1">
-        <v>7661</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -33108,10 +33112,10 @@
       <c r="E43" s="1">
         <v>7858</v>
       </c>
-      <c r="F43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H43" t="s">
@@ -33138,14 +33142,14 @@
       <c r="O43" s="1">
         <v>7782</v>
       </c>
-      <c r="P43" t="s">
-        <v>30</v>
+      <c r="P43" s="1">
+        <v>7423</v>
       </c>
       <c r="Q43" s="1">
-        <v>7892</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -33167,25 +33171,25 @@
       <c r="G44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="1">
         <v>10000</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K44" t="s">
         <v>30</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M44" s="1">
         <v>10000</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O44" t="s">
@@ -33198,7 +33202,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -33229,7 +33233,7 @@
       <c r="J45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L45" s="1">
@@ -33241,7 +33245,7 @@
       <c r="N45" s="1">
         <v>7632</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P45" t="s">
@@ -33251,7 +33255,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -33297,14 +33301,14 @@
       <c r="O46" s="1">
         <v>7253</v>
       </c>
-      <c r="P46" t="s">
-        <v>30</v>
+      <c r="P46" s="1">
+        <v>7480</v>
       </c>
       <c r="Q46" s="1">
-        <v>7326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -33355,6 +33359,2210 @@
       </c>
       <c r="Q47" s="1">
         <v>7270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03A665C-AED7-4850-91B0-8861B08C3716}">
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7756</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>7932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7395</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7544</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7491</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7491</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1">
+        <v>7491</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7893</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8048</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7969</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7969</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7969</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7860</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7992</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7992</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7992</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>7992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7785</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8413</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8099</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8099</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8099</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>8099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7422</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7557</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7490</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7490</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7490</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7384</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7555</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7469</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7469</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7469</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>7469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7394</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7525</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7439</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7439</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7439</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>7439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7408</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7537</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7473</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7473</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1">
+        <v>7473</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>7473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7150</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7150</v>
+      </c>
+      <c r="N14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7600</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7525</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7546</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7546</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7546</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7366</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7577</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7577</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7577</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1">
+        <v>7577</v>
+      </c>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>7577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7520</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7612</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7602</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7602</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7602</v>
+      </c>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7030</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6950</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6978</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6978</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6978</v>
+      </c>
+      <c r="N18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7827</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8037</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7900</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7900</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1">
+        <v>7900</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8030</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8025</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8025</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1">
+        <v>8025</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1">
+        <v>8025</v>
+      </c>
+      <c r="N20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>8025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7851</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8081</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7966</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7966</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1">
+        <v>7966</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7820</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7820</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7820</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7820</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8120</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7950</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8035</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8035</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8035</v>
+      </c>
+      <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>8035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7662</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7662</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7662</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="1">
+        <v>7662</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>7662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7726</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8252</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7989</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7989</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1">
+        <v>7989</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7933</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8032</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="1">
+        <v>8032</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="1">
+        <v>8032</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>8032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7752</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8500</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="1">
+        <v>8126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="1">
+        <v>8126</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>8126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8250</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8349</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8300</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8300</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="1">
+        <v>8300</v>
+      </c>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7905</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8457</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8181</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="1">
+        <v>8181</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="1">
+        <v>8181</v>
+      </c>
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>8181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8225</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8062</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1">
+        <v>8062</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="1">
+        <v>8062</v>
+      </c>
+      <c r="N30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>8062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8050</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7975</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7975</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="1">
+        <v>7975</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8050</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7975</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7975</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1">
+        <v>7975</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7920</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8150</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8035</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8035</v>
+      </c>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="1">
+        <v>8035</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>8035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7560</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7800</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7680</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="1">
+        <v>7680</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="1">
+        <v>7680</v>
+      </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7700</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7950</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7825</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7825</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="1">
+        <v>7825</v>
+      </c>
+      <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7660</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7950</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7805</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7805</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1">
+        <v>7805</v>
+      </c>
+      <c r="N36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8080</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8300</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8190</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="1">
+        <v>8190</v>
+      </c>
+      <c r="J37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="1">
+        <v>8190</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7880</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7990</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1">
+        <v>7990</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="1">
+        <v>7990</v>
+      </c>
+      <c r="N38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7790</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7957</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="1">
+        <v>7957</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1">
+        <v>7957</v>
+      </c>
+      <c r="N39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7675</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7587</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="1">
+        <v>7587</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1">
+        <v>7587</v>
+      </c>
+      <c r="N40" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>7587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7901</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8216</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8059</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="1">
+        <v>8059</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="1">
+        <v>8059</v>
+      </c>
+      <c r="N41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>8059</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8500</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8500</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="1">
+        <v>8500</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="1">
+        <v>8500</v>
+      </c>
+      <c r="N42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7650</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8906</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8278</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="1">
+        <v>8278</v>
+      </c>
+      <c r="J43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="1">
+        <v>8278</v>
+      </c>
+      <c r="N43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>8278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7763</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7763</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7763</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="1">
+        <v>7763</v>
+      </c>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1">
+        <v>7763</v>
+      </c>
+      <c r="N44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>7763</v>
       </c>
     </row>
   </sheetData>
@@ -33371,24 +35579,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -33441,7 +35649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -33507,24 +35715,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -33577,7 +35785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -33643,24 +35851,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -33713,7 +35921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -33779,24 +35987,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -33849,7 +36057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -33915,24 +36123,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -33985,7 +36193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -34051,24 +36259,24 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -34121,7 +36329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -34174,7 +36382,7 @@
         <v>5634</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
